--- a/data/technology_patents/uspto_world_relative.xlsx
+++ b/data/technology_patents/uspto_world_relative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A08F18-D521-EC47-9BD2-DCC414B6FEFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72343E1D-E5F5-0744-92A9-F0AAB60096FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{91E7BE4D-7A21-7246-B22C-6802979A2877}"/>
+    <workbookView xWindow="8600" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{91E7BE4D-7A21-7246-B22C-6802979A2877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +443,7 @@
         <v>2387</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E20" si="0">D2/C2</f>
         <v>4.4737236674413372E-2</v>
       </c>
     </row>
@@ -461,7 +461,7 @@
         <v>8776</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>4.9921499920362239E-2</v>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>12789</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>4.7961747609225579E-2</v>
       </c>
     </row>
@@ -497,7 +497,7 @@
         <v>13694</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>4.8744024461000152E-2</v>
       </c>
     </row>
@@ -515,7 +515,7 @@
         <v>14635</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>4.9419360503007034E-2</v>
       </c>
     </row>
@@ -533,7 +533,7 @@
         <v>16222</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>5.099942782049912E-2</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         <v>17498</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>5.2644088295731133E-2</v>
       </c>
     </row>
@@ -569,7 +569,7 @@
         <v>19212</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>5.755835378074977E-2</v>
       </c>
     </row>
@@ -587,7 +587,7 @@
         <v>21237</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
+        <f t="shared" si="0"/>
         <v>6.3377192328008383E-2</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>22502</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
+        <f t="shared" si="0"/>
         <v>6.9513694525279113E-2</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
         <v>25469</v>
       </c>
       <c r="E12">
-        <f>D12/C12</f>
+        <f t="shared" si="0"/>
         <v>8.2383956008410156E-2</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>28089</v>
       </c>
       <c r="E13">
-        <f>D13/C13</f>
+        <f t="shared" si="0"/>
         <v>8.5691274676396381E-2</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>29045</v>
       </c>
       <c r="E14">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>8.5512486088948292E-2</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>28964</v>
       </c>
       <c r="E15">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>7.9872045886992246E-2</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>27998</v>
       </c>
       <c r="E16">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>7.4229810700461321E-2</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>26521</v>
       </c>
       <c r="E17">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>7.4011129157387723E-2</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>25022</v>
       </c>
       <c r="E18">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>7.2271965802091151E-2</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>22241</v>
       </c>
       <c r="E19">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>6.9132187605877221E-2</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>10306</v>
       </c>
       <c r="E20">
-        <f>D20/C20</f>
+        <f t="shared" si="0"/>
         <v>4.1081693015394674E-2</v>
       </c>
     </row>
